--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1022,210 +1022,210 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G48" s="2" t="b">
@@ -2929,11 +2929,11 @@
         </is>
       </c>
       <c r="I48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K48" s="2" t="b">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G49" s="2" t="b">
@@ -2981,11 +2981,11 @@
         </is>
       </c>
       <c r="I49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K49" s="2" t="b">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3033,11 +3033,11 @@
         </is>
       </c>
       <c r="I50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3085,11 +3085,11 @@
         </is>
       </c>
       <c r="I51" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K51" s="2" t="b">
@@ -3102,416 +3102,416 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>re-install</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G82" s="2" t="b">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G83" s="2" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G98" s="2" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6898,156 +6898,156 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>8</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>8</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>8</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>9</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>8</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>10</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G138" s="2" t="b">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G196" s="2" t="b">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="F197" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G197" s="2" t="b">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G199" s="2" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11838,312 +11838,312 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>14</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>14</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>14</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>2</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>14</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>3</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>14</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>4</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>14</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>5</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="F229" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G229" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="L229" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="F230" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G230" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="L230" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="F258" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G258" s="2" t="b">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="L258" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15270,260 +15270,260 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D286" t="n">
-        <v>0</v>
-      </c>
-      <c r="E286" t="inlineStr">
+      <c r="D286" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="F286" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="G286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I286" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" t="inlineStr">
+      <c r="I286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J286" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K286" t="b">
-        <v>1</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
+      <c r="I287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J287" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>signal</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>1</v>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
+        <is>
+          <t>weak</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E288" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I287" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr">
+      <c r="I288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J288" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B289" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C289" s="2" t="inlineStr">
+        <is>
+          <t>Hovering</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E289" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F289" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G289" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H289" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K287" t="b">
-        <v>1</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
+      <c r="I289" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J289" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K289" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L289" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B290" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>weak</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>2</v>
-      </c>
-      <c r="E288" t="inlineStr">
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>unstable</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E290" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="F290" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G290" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H290" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I288" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K288" t="b">
-        <v>1</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>18</v>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Hovering</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>3</v>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G289" t="b">
-        <v>1</v>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I289" t="b">
-        <v>1</v>
-      </c>
-      <c r="J289" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K289" t="b">
-        <v>1</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>18</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>unstable</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>4</v>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G290" t="b">
-        <v>1</v>
-      </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I290" t="b">
-        <v>1</v>
-      </c>
-      <c r="J290" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K290" t="b">
-        <v>1</v>
-      </c>
-      <c r="L290" t="inlineStr">
+      <c r="I290" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J290" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K290" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L290" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15565,11 +15565,11 @@
         </is>
       </c>
       <c r="I291" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K291" s="2" t="b">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F292" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G292" s="2" t="b">
@@ -15617,11 +15617,11 @@
         </is>
       </c>
       <c r="I292" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K292" s="2" t="b">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="L292" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="F293" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G293" s="2" t="b">
@@ -15669,11 +15669,11 @@
         </is>
       </c>
       <c r="I293" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K293" s="2" t="b">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="L293" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="F303" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G303" s="2" t="b">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="L303" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="F304" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G304" s="2" t="b">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="L304" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="F305" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G305" s="2" t="b">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="L305" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1022,210 +1022,210 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Spot-Check</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Spot-Check</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G48" s="2" t="b">
@@ -2929,11 +2929,11 @@
         </is>
       </c>
       <c r="I48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K48" s="2" t="b">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G49" s="2" t="b">
@@ -2981,11 +2981,11 @@
         </is>
       </c>
       <c r="I49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K49" s="2" t="b">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3033,11 +3033,11 @@
         </is>
       </c>
       <c r="I50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3085,11 +3085,11 @@
         </is>
       </c>
       <c r="I51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K51" s="2" t="b">
@@ -3102,416 +3102,416 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>3</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
         <v>3</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>9</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>3</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>re-install</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>10</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>3</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>11</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G82" s="2" t="b">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G83" s="2" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G98" s="2" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6898,156 +6898,156 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G138" s="2" t="b">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G196" s="2" t="b">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="F197" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G197" s="2" t="b">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G199" s="2" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11838,312 +11838,312 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="inlineStr">
+      <c r="D220" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>14</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>14</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>14</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>5</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="F229" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G229" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="L229" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="F230" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G230" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="L230" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="F258" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G258" s="2" t="b">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="L258" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -15270,260 +15270,260 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" t="n">
         <v>18</v>
       </c>
-      <c r="B286" s="2" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C286" s="2" t="inlineStr">
+      <c r="C286" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D286" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E286" s="2" t="inlineStr">
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F286" s="2" t="inlineStr">
+      <c r="F286" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" s="2" t="inlineStr">
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L286" s="2" t="inlineStr">
+      <c r="I286" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" t="n">
         <v>18</v>
       </c>
-      <c r="B287" s="2" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E287" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F287" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" s="2" t="inlineStr">
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2" t="inlineStr">
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" t="n">
         <v>18</v>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>weak</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
+      <c r="D288" t="n">
         <v>2</v>
       </c>
-      <c r="E288" s="2" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="2" t="inlineStr">
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L288" s="2" t="inlineStr">
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
+      <c r="A289" t="n">
         <v>18</v>
       </c>
-      <c r="B289" s="2" t="inlineStr">
+      <c r="B289" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C289" s="2" t="inlineStr">
+      <c r="C289" t="inlineStr">
         <is>
           <t>Hovering</t>
         </is>
       </c>
-      <c r="D289" s="2" t="n">
+      <c r="D289" t="n">
         <v>3</v>
       </c>
-      <c r="E289" s="2" t="inlineStr">
+      <c r="E289" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F289" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G289" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H289" s="2" t="inlineStr">
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G289" t="b">
+        <v>1</v>
+      </c>
+      <c r="H289" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L289" s="2" t="inlineStr">
+      <c r="I289" t="b">
+        <v>1</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K289" t="b">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2" t="n">
+      <c r="A290" t="n">
         <v>18</v>
       </c>
-      <c r="B290" s="2" t="inlineStr">
+      <c r="B290" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C290" s="2" t="inlineStr">
+      <c r="C290" t="inlineStr">
         <is>
           <t>unstable</t>
         </is>
       </c>
-      <c r="D290" s="2" t="n">
+      <c r="D290" t="n">
         <v>4</v>
       </c>
-      <c r="E290" s="2" t="inlineStr">
+      <c r="E290" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F290" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G290" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H290" s="2" t="inlineStr">
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G290" t="b">
+        <v>1</v>
+      </c>
+      <c r="H290" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I290" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K290" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L290" s="2" t="inlineStr">
+      <c r="I290" t="b">
+        <v>1</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K290" t="b">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15565,11 +15565,11 @@
         </is>
       </c>
       <c r="I291" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K291" s="2" t="b">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F292" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G292" s="2" t="b">
@@ -15617,11 +15617,11 @@
         </is>
       </c>
       <c r="I292" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K292" s="2" t="b">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="L292" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="F293" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G293" s="2" t="b">
@@ -15669,11 +15669,11 @@
         </is>
       </c>
       <c r="I293" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K293" s="2" t="b">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="L293" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="F303" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G303" s="2" t="b">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="L303" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="F304" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G304" s="2" t="b">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="L304" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="F305" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G305" s="2" t="b">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="L305" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
